--- a/readySimple/.xlsx
+++ b/readySimple/.xlsx
@@ -34,13 +34,10 @@
     <t xml:space="preserve">%Потребность%</t>
   </si>
   <si>
-    <t xml:space="preserve">Спасибо, информацию записал. Если я правильно вас понял, вам нужно (перечисляем все ответы клиента в той последовательности, в которой он их дал). Все правильно?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ок. Тогда подскажите ваш email и когда будет удобно созвониться для ваших вопросов и обратной связи в целом?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тогда действуем. Если что, на связи. До свидания.</t>
+    <t xml:space="preserve">Спасибо, информацию записал. Для того, чтобы подобрать решение мне потребуется %ВремяГотовности%. Когда вам будет удобно созвониться, чтобы его обсудить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договорились. Наберу вас в этот день и это время. Для разговора и вашего решения потребуется примерно %ВремяРазговора% Пожалуйста, имейте это ввиду. До свидания.</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый день (называем имя, если известно, ждем ответное приветствие). Меня зовут ...   . Вам сейчас удобно говорить?</t>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Спасибо, информацию записал. Для того, чтобы подобрать решение мне потребуется . Когда вам будет удобно созвониться, чтобы его обсудить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договорились. Наберу вас в этот день и это время. Для разговора и вашего решения потребуется примерно  Пожалуйста, имейте это ввиду. До свидания.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -169,7 +172,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" t="s" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -179,7 +182,7 @@
     </row>
     <row r="3" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" t="s" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -189,7 +192,7 @@
     </row>
     <row r="5" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" t="s" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -199,7 +202,7 @@
     </row>
     <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" t="s" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -209,17 +212,7 @@
     </row>
     <row r="9" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" t="s" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
